--- a/개인 작업 폴더/윤도균/스킬정리.xlsx
+++ b/개인 작업 폴더/윤도균/스킬정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\Yaho\개인 작업 폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE989D0D-8BD2-4379-8555-FF7B59AC686B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231F8C6-BAE5-4929-8990-02B8BAC5CBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="675" windowWidth="22095" windowHeight="14670" xr2:uid="{E001BFE9-5AC8-41A3-AA42-EAB6C0E9C0F7}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -830,6 +830,9 @@
       <c r="N6" s="1">
         <v>6</v>
       </c>
+      <c r="O6" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -865,6 +868,9 @@
       <c r="N7" s="1">
         <v>12</v>
       </c>
+      <c r="O7" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -897,6 +903,9 @@
       <c r="N8" s="1">
         <v>256</v>
       </c>
+      <c r="O8" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -932,6 +941,9 @@
       <c r="N9" s="1">
         <v>36</v>
       </c>
+      <c r="O9" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -964,6 +976,9 @@
       <c r="N10" s="1">
         <v>18</v>
       </c>
+      <c r="O10" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -999,6 +1014,9 @@
       <c r="N11" s="1">
         <v>20</v>
       </c>
+      <c r="O11" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1033,6 +1051,9 @@
       </c>
       <c r="N12" s="1">
         <v>12</v>
+      </c>
+      <c r="O12" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/개인 작업 폴더/윤도균/스킬정리.xlsx
+++ b/개인 작업 폴더/윤도균/스킬정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\Yaho\개인 작업 폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3231F8C6-BAE5-4929-8990-02B8BAC5CBF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E930297-6E5F-4925-B43F-FFCD172339E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="675" windowWidth="22095" windowHeight="14670" xr2:uid="{E001BFE9-5AC8-41A3-AA42-EAB6C0E9C0F7}"/>
+    <workbookView xWindow="165" yWindow="390" windowWidth="22125" windowHeight="14670" xr2:uid="{E001BFE9-5AC8-41A3-AA42-EAB6C0E9C0F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/개인 작업 폴더/윤도균/스킬정리.xlsx
+++ b/개인 작업 폴더/윤도균/스킬정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsao\Desktop\Yaho\개인 작업 폴더\윤도균\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E930297-6E5F-4925-B43F-FFCD172339E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7324211B-225B-45FB-9553-6D08CB160614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="390" windowWidth="22125" windowHeight="14670" xr2:uid="{E001BFE9-5AC8-41A3-AA42-EAB6C0E9C0F7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>스킬명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨당 상승량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C12202-B9AE-4B8C-A825-5FF7A01FBEFA}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -600,13 +604,15 @@
     <col min="6" max="6" width="14.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
-    <col min="9" max="12" width="6.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -638,22 +644,25 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -681,14 +690,17 @@
       <c r="J2" s="1">
         <v>50</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -716,14 +728,14 @@
       <c r="J3" s="1">
         <v>20</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>24</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -754,14 +766,14 @@
       <c r="J4" s="1">
         <v>20</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>20</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -789,14 +801,14 @@
       <c r="J5" s="1">
         <v>15</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -827,14 +839,14 @@
       <c r="J6" s="1">
         <v>40</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>6</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -865,14 +877,14 @@
       <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>12</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -900,14 +912,14 @@
       <c r="J8" s="1">
         <v>-15</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>256</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -938,14 +950,14 @@
       <c r="J9" s="1">
         <v>-20</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>36</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -967,20 +979,20 @@
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>10</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>18</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1005,20 +1017,20 @@
       <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>20</v>
       </c>
       <c r="N11" s="1">
         <v>20</v>
       </c>
       <c r="O11" s="1">
+        <v>20</v>
+      </c>
+      <c r="P11" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1043,20 +1055,20 @@
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>15</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>12</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
